--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,72 +40,72 @@
     <t>name</t>
   </si>
   <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>illegal</t>
-  </si>
-  <si>
     <t>evil</t>
   </si>
   <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
     <t>disturbing</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>scary</t>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>crazy</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>hate</t>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -121,22 +121,22 @@
     <t>great</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>powerful</t>
+    <t>important</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>important</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>love</t>
@@ -145,58 +145,49 @@
     <t>wow</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>right</t>
+    <t>new</t>
   </si>
   <si>
     <t>many</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
     <t>much</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>social</t>
   </si>
   <si>
-    <t>really</t>
+    <t>documentary</t>
   </si>
   <si>
     <t>netflix</t>
   </si>
   <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
     <t>dilemma</t>
   </si>
   <si>
-    <t>twitter</t>
-  </si>
-  <si>
-    <t>must</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>documentary</t>
+    <t>watching</t>
   </si>
   <si>
     <t>watch</t>
   </si>
   <si>
-    <t>watching</t>
-  </si>
-  <si>
     <t>…</t>
+  </si>
+  <si>
+    <t>’</t>
   </si>
   <si>
     <t>positive</t>
@@ -557,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,7 +559,7 @@
         <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -626,13 +617,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -644,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>32</v>
@@ -676,13 +667,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -694,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>33</v>
@@ -726,13 +717,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -744,19 +735,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K5">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -768,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -776,13 +767,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9242424242424242</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C6">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -794,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K6">
-        <v>0.8070175438596491</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L6">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -818,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -826,13 +817,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9230769230769231</v>
+        <v>0.9</v>
       </c>
       <c r="C7">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -844,19 +835,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K7">
-        <v>0.7666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -868,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -876,13 +867,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8461538461538461</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -894,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K8">
-        <v>0.6551724137931034</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="L8">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M8">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -918,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -926,13 +917,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8125</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -944,19 +935,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K9">
-        <v>0.631578947368421</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="M9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -968,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -976,13 +967,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7894736842105263</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1000,13 +991,13 @@
         <v>39</v>
       </c>
       <c r="K10">
-        <v>0.5866666666666667</v>
+        <v>0.52</v>
       </c>
       <c r="L10">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="M10">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1018,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1026,13 +1017,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7647058823529411</v>
+        <v>0.75</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1044,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K11">
-        <v>0.5333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="L11">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="M11">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1068,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1076,13 +1067,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.625</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1094,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>41</v>
@@ -1126,13 +1117,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.625</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1150,13 +1141,13 @@
         <v>42</v>
       </c>
       <c r="K13">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="L13">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M13">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1168,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1176,13 +1167,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6159420289855072</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C14">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D14">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1194,19 +1185,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K14">
-        <v>0.303030303030303</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="L14">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M14">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1218,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1226,13 +1217,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6086956521739131</v>
+        <v>0.5625</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1244,19 +1235,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K15">
-        <v>0.2592592592592592</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="L15">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M15">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1268,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1276,13 +1267,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1294,19 +1285,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K16">
-        <v>0.2195121951219512</v>
+        <v>0.1830985915492958</v>
       </c>
       <c r="L16">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M16">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1318,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1326,13 +1317,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5128205128205128</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1344,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K17">
-        <v>0.2153846153846154</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="L17">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M17">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1368,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1376,13 +1367,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5106382978723404</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="C18">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1394,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K18">
-        <v>0.1525423728813559</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="L18">
         <v>9</v>
@@ -1418,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1426,13 +1417,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1444,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K19">
-        <v>0.1475409836065574</v>
+        <v>0.1302367941712204</v>
       </c>
       <c r="L19">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="M19">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1468,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>52</v>
+        <v>955</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1476,13 +1467,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4761904761904762</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1494,19 +1485,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K20">
-        <v>0.1408450704225352</v>
+        <v>0.07420494699646643</v>
       </c>
       <c r="L20">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="M20">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1518,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>61</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1526,13 +1517,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4571428571428571</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="C21">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D21">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1544,31 +1535,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K21">
-        <v>0.122151321786691</v>
+        <v>0.06851851851851852</v>
       </c>
       <c r="L21">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="M21">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="N21">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>963</v>
+        <v>503</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1576,13 +1567,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3928571428571428</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="C22">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1594,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K22">
-        <v>0.1052631578947368</v>
+        <v>0.06569343065693431</v>
       </c>
       <c r="L22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1618,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>85</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1626,13 +1617,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3571428571428572</v>
+        <v>0.375</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1644,19 +1635,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K23">
-        <v>0.06851851851851852</v>
+        <v>0.05421686746987952</v>
       </c>
       <c r="L23">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M23">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1668,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>503</v>
+        <v>628</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1676,13 +1667,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3461538461538461</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C24">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D24">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1694,19 +1685,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K24">
-        <v>0.06666666666666667</v>
+        <v>0.05396825396825397</v>
       </c>
       <c r="L24">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M24">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1718,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1726,13 +1717,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2564102564102564</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="C25">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1744,19 +1735,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K25">
-        <v>0.06569343065693431</v>
+        <v>0.02932551319648094</v>
       </c>
       <c r="L25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1768,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>128</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1776,13 +1767,13 @@
         <v>55</v>
       </c>
       <c r="K26">
-        <v>0.06211180124223602</v>
+        <v>0.0275974025974026</v>
       </c>
       <c r="L26">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="M26">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1794,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>151</v>
+        <v>599</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1802,13 +1793,13 @@
         <v>56</v>
       </c>
       <c r="K27">
-        <v>0.06024096385542169</v>
+        <v>0.02361751152073733</v>
       </c>
       <c r="L27">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M27">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1820,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>624</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1828,103 +1819,25 @@
         <v>57</v>
       </c>
       <c r="K28">
-        <v>0.06007067137809187</v>
+        <v>0.01794871794871795</v>
       </c>
       <c r="L28">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M28">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K29">
-        <v>0.03246753246753246</v>
-      </c>
-      <c r="L29">
-        <v>20</v>
-      </c>
-      <c r="M29">
-        <v>20</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K30">
-        <v>0.02932551319648094</v>
-      </c>
-      <c r="L30">
-        <v>10</v>
-      </c>
-      <c r="M30">
-        <v>10</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K31">
-        <v>0.02361751152073733</v>
-      </c>
-      <c r="L31">
-        <v>41</v>
-      </c>
-      <c r="M31">
-        <v>41</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>1695</v>
+        <v>766</v>
       </c>
     </row>
   </sheetData>
